--- a/documents/Results.xlsx
+++ b/documents/Results.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\EP\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3435" yWindow="60" windowWidth="8940" windowHeight="12600"/>
   </bookViews>
@@ -15,12 +20,12 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Метод</t>
   </si>
@@ -40,15 +45,6 @@
     <t>Суммарная площадь пересечений</t>
   </si>
   <si>
-    <t>ForceDirected 5 итераций</t>
-  </si>
-  <si>
-    <t>ForceDirected 20 итераций</t>
-  </si>
-  <si>
-    <t>ForceDirected 25 итераций</t>
-  </si>
-  <si>
     <t>CombinePlacer</t>
   </si>
   <si>
@@ -58,67 +54,37 @@
     <t>CrossComponent 2</t>
   </si>
   <si>
-    <t>CombinePlacer для 20 итераций</t>
+    <t>Время работы (мин:сек)</t>
   </si>
   <si>
-    <t>CombinePlacer для 25 итераций</t>
+    <t>Force Directed</t>
   </si>
   <si>
-    <t>CrossReductPlacer для 20 итераций</t>
+    <t>без предобработки</t>
   </si>
   <si>
-    <t>CrossReductPlacer для 25 итераций</t>
+    <t>20 итераций</t>
   </si>
   <si>
-    <t>CrossComponent 2 для 20 итераций</t>
+    <t>25 итераций</t>
   </si>
   <si>
-    <t>CrossComponent 2 для 25 итераций</t>
+    <t>Чистое</t>
   </si>
   <si>
-    <t>Время работы</t>
+    <t>Общее</t>
   </si>
   <si>
-    <t>00:16:02.3304641</t>
-  </si>
-  <si>
-    <t>00:06:30.6765931</t>
-  </si>
-  <si>
-    <t>00:07:33.9434913</t>
-  </si>
-  <si>
-    <t>00:07:32.0383526</t>
-  </si>
-  <si>
-    <t>00:11:33.2422815</t>
-  </si>
-  <si>
-    <t>00:03:35.8881358</t>
-  </si>
-  <si>
-    <t>00:03:30.8657477</t>
-  </si>
-  <si>
-    <t>00:19.0360846</t>
-  </si>
-  <si>
-    <t>01:11.8407090</t>
-  </si>
-  <si>
-    <t>01:29.2433011</t>
-  </si>
-  <si>
-    <t>11:38.9619320</t>
-  </si>
-  <si>
-    <t>15:31.3912071</t>
+    <t>5 итераций</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,19 +156,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -225,11 +178,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,68 +201,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,15 +307,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>
-              </c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
@@ -493,6 +463,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>
+              </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -503,20 +494,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="70489600"/>
-        <c:axId val="83100224"/>
+        <c:axId val="247639840"/>
+        <c:axId val="247380432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70489600"/>
+        <c:axId val="247639840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83100224"/>
+        <c:crossAx val="247380432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -524,7 +516,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83100224"/>
+        <c:axId val="247380432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,16 +527,11 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70489600"/>
+        <c:crossAx val="247639840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -581,15 +568,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>
-              </c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
@@ -746,6 +724,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>
+              </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -756,20 +755,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46266368"/>
-        <c:axId val="92635136"/>
+        <c:axId val="248315312"/>
+        <c:axId val="390185024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46266368"/>
+        <c:axId val="248315312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92635136"/>
+        <c:crossAx val="390185024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,7 +777,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92635136"/>
+        <c:axId val="390185024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,16 +788,11 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46266368"/>
+        <c:crossAx val="248315312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -834,15 +829,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>
-              </c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
@@ -999,6 +985,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>
+              </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1009,20 +1016,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92076544"/>
-        <c:axId val="92637440"/>
+        <c:axId val="247587848"/>
+        <c:axId val="245724880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92076544"/>
+        <c:axId val="247587848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92637440"/>
+        <c:crossAx val="245724880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1038,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92637440"/>
+        <c:axId val="245724880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,16 +1049,11 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92076544"/>
+        <c:crossAx val="247587848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -1087,15 +1090,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>
-              </c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
@@ -1252,6 +1246,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>
+              </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1262,20 +1277,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93399040"/>
-        <c:axId val="98047616"/>
+        <c:axId val="245725272"/>
+        <c:axId val="390239320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93399040"/>
+        <c:axId val="245725272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98047616"/>
+        <c:crossAx val="390239320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1283,7 +1299,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98047616"/>
+        <c:axId val="390239320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,16 +1310,11 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93399040"/>
+        <c:crossAx val="245725272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -1340,15 +1351,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>
-              </c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
@@ -1505,6 +1507,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>
+              </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1515,20 +1538,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93399552"/>
-        <c:axId val="103696640"/>
+        <c:axId val="390240104"/>
+        <c:axId val="390240496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93399552"/>
+        <c:axId val="390240104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103696640"/>
+        <c:crossAx val="390240496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1536,7 +1560,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103696640"/>
+        <c:axId val="390240496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,16 +1571,11 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93399552"/>
+        <c:crossAx val="390240104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -1573,13 +1592,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>48745</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
@@ -1605,13 +1624,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>96369</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>534521</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>285749</xdr:rowOff>
@@ -1637,13 +1656,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>20170</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>458321</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
@@ -1669,13 +1688,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>39220</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>439271</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1701,16 +1720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>58270</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>17368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>439271</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>416859</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2367,9 +2386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2407,9 +2426,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2444,7 +2463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2479,7 +2498,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2653,472 +2672,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
-        <v>18</v>
-      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="16">
+        <v>4679579.8728780197</v>
+      </c>
+      <c r="D3" s="16">
+        <v>4678878</v>
+      </c>
+      <c r="E3" s="16">
+        <v>143528</v>
+      </c>
+      <c r="F3" s="16">
+        <v>137488</v>
+      </c>
+      <c r="G3" s="16">
+        <v>22346624.567854799</v>
+      </c>
+      <c r="H3" s="16">
+        <v>22199814</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16">
+        <v>4679579.8728780197</v>
+      </c>
+      <c r="D4" s="19">
+        <v>4678069</v>
+      </c>
+      <c r="E4" s="16">
+        <v>143528</v>
+      </c>
+      <c r="F4" s="16">
+        <v>136146</v>
+      </c>
+      <c r="G4" s="16">
+        <v>22346624.567854799</v>
+      </c>
+      <c r="H4" s="16">
+        <v>20886085</v>
+      </c>
+      <c r="I4" s="17">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4679579.8728780197</v>
+      </c>
+      <c r="D5" s="21">
+        <v>4678219</v>
+      </c>
+      <c r="E5" s="20">
+        <v>143528</v>
+      </c>
+      <c r="F5" s="22">
+        <v>135070</v>
+      </c>
+      <c r="G5" s="20">
+        <v>22346624.567854799</v>
+      </c>
+      <c r="H5" s="22">
+        <v>20250602</v>
+      </c>
+      <c r="I5" s="17">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="20">
         <v>4679579.8728780197</v>
       </c>
-      <c r="C3" s="3">
-        <v>4678878</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="D7" s="20">
+        <v>6305570</v>
+      </c>
+      <c r="E7" s="14">
         <v>143528</v>
       </c>
-      <c r="E3" s="5">
-        <v>137488</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
         <v>22346624.567854799</v>
       </c>
-      <c r="G3" s="5">
-        <v>22199814</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="17">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="J7" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="21">
+        <v>4678069</v>
+      </c>
+      <c r="D8" s="22">
+        <v>6254956</v>
+      </c>
+      <c r="E8" s="14">
+        <v>136146</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
+        <v>22346624.567854799</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="17">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" ref="J8:J9" si="0">I8+I4</f>
+        <v>0.69652777777777786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20">
+        <v>4678219</v>
+      </c>
+      <c r="D9" s="20">
+        <v>6318262</v>
+      </c>
+      <c r="E9" s="14">
+        <v>135070</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <v>20250602</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="17">
+        <v>0.66805555555555562</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.72986111111111118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="20">
         <v>4679579.8728780197</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D11" s="20">
+        <v>6010242</v>
+      </c>
+      <c r="E11" s="14">
+        <v>143528</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <v>22346624.567854799</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="17">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21">
         <v>4678069</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D12" s="20">
+        <v>6010292</v>
+      </c>
+      <c r="E12" s="14">
+        <v>136146</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
+        <v>22346624.567854799</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="23">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" ref="J12:J13" si="1">I12+I4</f>
+        <v>0.36527777777777776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="20">
+        <v>4678219</v>
+      </c>
+      <c r="D13" s="22">
+        <v>5992087</v>
+      </c>
+      <c r="E13" s="14">
+        <v>135070</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <v>20250602</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="23">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="1"/>
+        <v>0.37569444444444444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="20">
+        <v>4679579.8728780197</v>
+      </c>
+      <c r="D15" s="22">
+        <v>6059317</v>
+      </c>
+      <c r="E15" s="14">
         <v>143528</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <v>22346624.567854799</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="23">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18">
+        <v>4678069</v>
+      </c>
+      <c r="D16" s="20">
+        <v>6199068</v>
+      </c>
+      <c r="E16" s="15">
         <v>136146</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15">
         <v>22346624.567854799</v>
       </c>
-      <c r="G4" s="5">
-        <v>20886085</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>27</v>
+      <c r="H16" s="15"/>
+      <c r="I16" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="J16" s="23">
+        <f>I16+I4</f>
+        <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4679579.8728780197</v>
-      </c>
-      <c r="C5" s="13">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16">
         <v>4678219</v>
       </c>
-      <c r="D5" s="10">
-        <v>143528</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D17" s="18">
+        <v>6158885</v>
+      </c>
+      <c r="E17" s="14">
         <v>135070</v>
       </c>
-      <c r="F5" s="10">
-        <v>22346624.567854799</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
         <v>20250602</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>28</v>
+      <c r="H17" s="14"/>
+      <c r="I17" s="17">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="J17" s="23">
+        <f>I17+I5</f>
+        <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="17"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10">
-        <v>4679579.8728780197</v>
-      </c>
-      <c r="C7" s="10">
-        <v>6305570</v>
-      </c>
-      <c r="D7" s="23">
-        <v>143528</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23">
-        <v>22346624.567854799</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="6" t="s">
-        <v>29</v>
-      </c>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="13">
-        <v>4678069</v>
-      </c>
-      <c r="C8" s="11">
-        <v>6254956</v>
-      </c>
-      <c r="D8" s="23">
-        <v>136146</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23">
-        <v>22346624.567854799</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10">
-        <v>4678219</v>
-      </c>
-      <c r="C9" s="10">
-        <v>6318262</v>
-      </c>
-      <c r="D9" s="23">
-        <v>135070</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23">
-        <v>20250602</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="6" t="s">
-        <v>19</v>
-      </c>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="17"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10">
-        <v>4679579.8728780197</v>
-      </c>
-      <c r="C11" s="10">
-        <v>6010242</v>
-      </c>
-      <c r="D11" s="23">
-        <v>143528</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23">
-        <v>22346624.567854799</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="6" t="s">
-        <v>20</v>
-      </c>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="13">
-        <v>4678069</v>
-      </c>
-      <c r="C12" s="10">
-        <v>6010292</v>
-      </c>
-      <c r="D12" s="23">
-        <v>136146</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23">
-        <v>22346624.567854799</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="10">
-        <v>4678219</v>
-      </c>
-      <c r="C13" s="8">
-        <v>5992087</v>
-      </c>
-      <c r="D13" s="23">
-        <v>135070</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23">
-        <v>20250602</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10">
-        <v>4679579.8728780197</v>
-      </c>
-      <c r="C15" s="8">
-        <v>6059317</v>
-      </c>
-      <c r="D15" s="23">
-        <v>143528</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23">
-        <v>22346624.567854799</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="19">
-        <v>4678069</v>
-      </c>
-      <c r="C16" s="20">
-        <v>6199068</v>
-      </c>
-      <c r="D16" s="27">
-        <v>136146</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27">
-        <v>22346624.567854799</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4678219</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6158885</v>
-      </c>
-      <c r="D17" s="23">
-        <v>135070</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23">
-        <v>20250602</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F15:G15"/>
+  <mergeCells count="30">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documents/Results.xlsx
+++ b/documents/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Метод</t>
   </si>
@@ -77,15 +77,63 @@
   <si>
     <t>5 итераций</t>
   </si>
+  <si>
+    <t>Манхэттенская метрика</t>
+  </si>
+  <si>
+    <t>– </t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Combined Placer</t>
+  </si>
+  <si>
+    <t>Cross Reduction Placer</t>
+  </si>
+  <si>
+    <t>Cross Component 2</t>
+  </si>
+  <si>
+    <t>Исходная задача</t>
+  </si>
+  <si>
+    <t>Force Directed i5</t>
+  </si>
+  <si>
+    <t>Force Directed i20</t>
+  </si>
+  <si>
+    <t>Force Directed i25</t>
+  </si>
+  <si>
+    <t>FD  i20 + CP</t>
+  </si>
+  <si>
+    <t>FD i25 + CP</t>
+  </si>
+  <si>
+    <t>FD i20 + CR</t>
+  </si>
+  <si>
+    <t>FD i25 + CR</t>
+  </si>
+  <si>
+    <t>FD i20 + CC2</t>
+  </si>
+  <si>
+    <t>FD i25 + CC2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +150,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +201,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -189,11 +274,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -209,18 +320,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,35 +377,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,11 +680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="247639840"/>
-        <c:axId val="247380432"/>
+        <c:axId val="195644560"/>
+        <c:axId val="195645736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="247639840"/>
+        <c:axId val="195644560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +694,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247380432"/>
+        <c:crossAx val="195645736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -516,7 +702,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247380432"/>
+        <c:axId val="195645736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +713,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247639840"/>
+        <c:crossAx val="195644560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -755,11 +941,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="248315312"/>
-        <c:axId val="390185024"/>
+        <c:axId val="197513608"/>
+        <c:axId val="197514000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248315312"/>
+        <c:axId val="197513608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +955,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390185024"/>
+        <c:crossAx val="197514000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,7 +963,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390185024"/>
+        <c:axId val="197514000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +974,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248315312"/>
+        <c:crossAx val="197513608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1016,11 +1202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="247587848"/>
-        <c:axId val="245724880"/>
+        <c:axId val="197514784"/>
+        <c:axId val="197515176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="247587848"/>
+        <c:axId val="197514784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1216,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245724880"/>
+        <c:crossAx val="197515176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1038,7 +1224,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245724880"/>
+        <c:axId val="197515176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1235,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247587848"/>
+        <c:crossAx val="197514784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,11 +1463,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="245725272"/>
-        <c:axId val="390239320"/>
+        <c:axId val="197515960"/>
+        <c:axId val="197516352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245725272"/>
+        <c:axId val="197515960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1477,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390239320"/>
+        <c:crossAx val="197516352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1299,7 +1485,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390239320"/>
+        <c:axId val="197516352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1496,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245725272"/>
+        <c:crossAx val="197515960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,11 +1724,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="390240104"/>
-        <c:axId val="390240496"/>
+        <c:axId val="197633152"/>
+        <c:axId val="197633544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="390240104"/>
+        <c:axId val="197633152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1738,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390240496"/>
+        <c:crossAx val="197633544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1746,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390240496"/>
+        <c:axId val="197633544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1757,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390240104"/>
+        <c:crossAx val="197633152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1592,16 +1778,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>48745</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1624,16 +1810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>96369</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>96370</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>534521</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1656,16 +1842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>20170</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>458321</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1688,16 +1874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>39220</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>439271</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1720,16 +1906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>35858</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>17368</xdr:rowOff>
+      <xdr:rowOff>283508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>416859</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36419</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2672,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,33 +2873,42 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="20"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2738,379 +2933,642 @@
       <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="M2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="41"/>
     </row>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="7">
         <v>4679579.8728780197</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="7">
         <v>4678878</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="7">
         <v>143528</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="7">
         <v>137488</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="7">
         <v>22346624.567854799</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="7">
         <v>22199814</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="8">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="9"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="M4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="44">
+        <v>4679580</v>
+      </c>
+      <c r="O4" s="44">
+        <v>143528</v>
+      </c>
+      <c r="P4" s="44">
+        <v>22346624</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C5" s="7">
         <v>4679579.8728780197</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D5" s="10">
         <v>4678069</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E5" s="7">
         <v>143528</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F5" s="7">
         <v>136146</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G5" s="7">
         <v>22346624.567854799</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H5" s="7">
         <v>20886085</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I5" s="8">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J5" s="9"/>
+      <c r="M5" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="44">
+        <v>4678878</v>
+      </c>
+      <c r="O5" s="44">
+        <v>137488</v>
+      </c>
+      <c r="P5" s="44">
+        <v>22199814</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="25" t="s">
+    <row r="6" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C6" s="11">
         <v>4679579.8728780197</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D6" s="12">
         <v>4678219</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E6" s="11">
         <v>143528</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F6" s="13">
         <v>135070</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G6" s="11">
         <v>22346624.567854799</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H6" s="13">
         <v>20250602</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I6" s="8">
         <v>6.1805555555555558E-2</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J6" s="9"/>
+      <c r="M6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="45">
+        <v>4678069</v>
+      </c>
+      <c r="O6" s="46">
+        <v>136146</v>
+      </c>
+      <c r="P6" s="46">
+        <v>20886085</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+    <row r="7" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="M7" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="47">
+        <v>4678219</v>
+      </c>
+      <c r="O7" s="47">
+        <v>135070</v>
+      </c>
+      <c r="P7" s="48">
+        <v>20250602</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C8" s="11">
         <v>4679579.8728780197</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D8" s="11">
         <v>6305570</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E8" s="24">
         <v>143528</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14">
+      <c r="F8" s="24"/>
+      <c r="G8" s="24">
         <v>22346624.567854799</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17">
+      <c r="H8" s="24"/>
+      <c r="I8" s="8">
         <v>0.48541666666666666</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J8" s="8"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="24" t="s">
+    <row r="9" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C9" s="12">
         <v>4678069</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D9" s="13">
         <v>6254956</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="24">
         <v>136146</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14">
+      <c r="F9" s="24"/>
+      <c r="G9" s="24">
         <v>22346624.567854799</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="17">
+      <c r="H9" s="24"/>
+      <c r="I9" s="8">
         <v>0.64652777777777781</v>
       </c>
-      <c r="J8" s="17">
-        <f t="shared" ref="J8:J9" si="0">I8+I4</f>
+      <c r="J9" s="8">
+        <f t="shared" ref="J9:J10" si="0">I9+I5</f>
         <v>0.69652777777777786</v>
       </c>
+      <c r="M9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="28">
+        <v>6305570</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="25" t="s">
+    <row r="10" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C10" s="11">
         <v>4678219</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D10" s="11">
         <v>6318262</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="24">
         <v>135070</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24">
         <v>20250602</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="17">
+      <c r="H10" s="24"/>
+      <c r="I10" s="8">
         <v>0.66805555555555562</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J10" s="8">
         <f t="shared" si="0"/>
         <v>0.72986111111111118</v>
       </c>
+      <c r="M10" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="35">
+        <v>6254956</v>
+      </c>
+      <c r="O10" s="34">
+        <v>0</v>
+      </c>
+      <c r="P10" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="R10" s="37">
+        <v>0.69652777777777775</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
+    <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="M11" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="28">
+        <v>6318262</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>0.66805555555555562</v>
+      </c>
+      <c r="R11" s="30">
+        <v>0.72986111111111107</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C12" s="11">
         <v>4679579.8728780197</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D12" s="11">
         <v>6010242</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="24">
         <v>143528</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="F12" s="24"/>
+      <c r="G12" s="24">
         <v>22346624.567854799</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="17">
+      <c r="H12" s="24"/>
+      <c r="I12" s="8">
         <v>0.27152777777777776</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J12" s="8"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="24" t="s">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C13" s="12">
         <v>4678069</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D13" s="11">
         <v>6010292</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="24">
         <v>136146</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24">
         <v>22346624.567854799</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="23">
+      <c r="H13" s="24"/>
+      <c r="I13" s="14">
         <v>0.31527777777777777</v>
       </c>
-      <c r="J12" s="17">
-        <f t="shared" ref="J12:J13" si="1">I12+I4</f>
+      <c r="J13" s="8">
+        <f t="shared" ref="J13:J14" si="1">I13+I5</f>
         <v>0.36527777777777776</v>
       </c>
+      <c r="M13" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="28">
+        <v>6010242</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="25" t="s">
+    <row r="14" spans="1:18" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C14" s="11">
         <v>4678219</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D14" s="13">
         <v>5992087</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="24">
         <v>135070</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24">
         <v>20250602</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="23">
+      <c r="H14" s="24"/>
+      <c r="I14" s="14">
         <v>0.31388888888888888</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J14" s="8">
         <f t="shared" si="1"/>
         <v>0.37569444444444444</v>
       </c>
+      <c r="M14" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="28">
+        <v>6010292</v>
+      </c>
+      <c r="O14" s="28">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0.36527777777777781</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="M15" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="31">
+        <v>5992087</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="R15" s="38">
+        <v>0.3756944444444445</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C16" s="11">
         <v>4679579.8728780197</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D16" s="13">
         <v>6059317</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="24">
         <v>143528</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24">
         <v>22346624.567854799</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="23">
+      <c r="H16" s="24"/>
+      <c r="I16" s="14">
         <v>0.48125000000000001</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J16" s="12"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="24" t="s">
+    <row r="17" spans="1:18" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C17" s="9">
         <v>4678069</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D17" s="11">
         <v>6199068</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="25">
         <v>136146</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25">
         <v>22346624.567854799</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="23">
+      <c r="H17" s="25"/>
+      <c r="I17" s="14">
         <v>0.15</v>
       </c>
-      <c r="J16" s="23">
-        <f>I16+I4</f>
+      <c r="J17" s="14">
+        <f>I17+I5</f>
         <v>0.19999999999999998</v>
       </c>
+      <c r="M17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="35">
+        <v>6059317</v>
+      </c>
+      <c r="O17" s="34">
+        <v>0</v>
+      </c>
+      <c r="P17" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="25" t="s">
+    <row r="18" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C18" s="7">
         <v>4678219</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="9">
         <v>6158885</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="24">
         <v>135070</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
         <v>20250602</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="17">
+      <c r="H18" s="24"/>
+      <c r="I18" s="8">
         <v>0.14652777777777778</v>
       </c>
-      <c r="J17" s="23">
-        <f>I17+I5</f>
+      <c r="J18" s="14">
+        <f>I18+I6</f>
         <v>0.20833333333333334</v>
       </c>
+      <c r="M18" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="28">
+        <v>6199068</v>
+      </c>
+      <c r="O18" s="28">
+        <v>0</v>
+      </c>
+      <c r="P18" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="R18" s="30">
+        <v>0.19999999999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3118,8 +3576,26 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
+      <c r="M19" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="28">
+        <v>6158885</v>
+      </c>
+      <c r="O19" s="28">
+        <v>0</v>
+      </c>
+      <c r="P19" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="R19" s="30">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3128,7 +3604,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -3137,7 +3613,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3146,7 +3622,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3155,7 +3631,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -3164,38 +3640,55 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E8:F8"/>
+  <mergeCells count="38">
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
